--- a/First report/MOSFET Characteristics.xlsx
+++ b/First report/MOSFET Characteristics.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025-I\1-Micro\parciales\Parcial 1\material del parcial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Microelectronics-repository\First report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF28923-2B5D-4315-9078-E6697014CF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F3B08E-9B99-4189-920E-35DA86A324D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="239">
   <si>
     <t>Parameter</t>
   </si>
@@ -676,6 +685,72 @@
   </si>
   <si>
     <t xml:space="preserve"> (W=4.64um) (L=0.4um)</t>
+  </si>
+  <si>
+    <t>111.2u</t>
+  </si>
+  <si>
+    <t>155.5k</t>
+  </si>
+  <si>
+    <t>14.45f</t>
+  </si>
+  <si>
+    <t>2.048f</t>
+  </si>
+  <si>
+    <t>10.69G</t>
+  </si>
+  <si>
+    <t>113.7u</t>
+  </si>
+  <si>
+    <t>48.95k</t>
+  </si>
+  <si>
+    <t>2.295f</t>
+  </si>
+  <si>
+    <t>638.9a</t>
+  </si>
+  <si>
+    <t>46.5G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (W=13.71 um) (L=1um)</t>
+  </si>
+  <si>
+    <t>59.57u</t>
+  </si>
+  <si>
+    <t>832.257m</t>
+  </si>
+  <si>
+    <t>500.2m</t>
+  </si>
+  <si>
+    <t>300m</t>
+  </si>
+  <si>
+    <t>299.8u</t>
+  </si>
+  <si>
+    <t>106.1u</t>
+  </si>
+  <si>
+    <t>348.7k</t>
+  </si>
+  <si>
+    <t>95.66f</t>
+  </si>
+  <si>
+    <t>6.047f</t>
+  </si>
+  <si>
+    <t>1.948G</t>
+  </si>
+  <si>
+    <t>29.1 m</t>
   </si>
 </sst>
 </file>
@@ -714,7 +789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFF7979"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -814,11 +889,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -829,11 +907,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,6 +919,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7979"/>
+      <color rgb="FFFF1515"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1117,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F2:AI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24:Y24"/>
+    <sheetView tabSelected="1" topLeftCell="U4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1225,7 @@
     <col min="31" max="31" width="11.140625" customWidth="1"/>
     <col min="32" max="32" width="14.42578125" customWidth="1"/>
     <col min="33" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14" customWidth="1"/>
     <col min="37" max="37" width="13" customWidth="1"/>
     <col min="38" max="38" width="15.140625" customWidth="1"/>
     <col min="39" max="39" width="14.28515625" customWidth="1"/>
@@ -1149,68 +1233,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="6:35" x14ac:dyDescent="0.25">
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="Y2" s="17" t="s">
+      <c r="S2" s="18"/>
+      <c r="Y2" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="Z2" s="17"/>
-      <c r="AF2" s="17" t="s">
+      <c r="Z2" s="18"/>
+      <c r="AF2" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="AG2" s="17"/>
+      <c r="AG2" s="18"/>
     </row>
     <row r="3" spans="6:35" x14ac:dyDescent="0.25">
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
     </row>
     <row r="5" spans="6:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19" t="s">
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="R5" s="18" t="s">
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="R5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="Y5" s="18" t="s">
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="Y5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="Z5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AF5" s="18" t="s">
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AF5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AG5" s="19" t="s">
+      <c r="AG5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
     </row>
     <row r="6" spans="6:35" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="18"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1229,7 +1313,7 @@
       <c r="M6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="18"/>
+      <c r="R6" s="19"/>
       <c r="S6" s="3" t="s">
         <v>100</v>
       </c>
@@ -1240,7 +1324,7 @@
         <v>136</v>
       </c>
       <c r="X6" s="9"/>
-      <c r="Y6" s="18"/>
+      <c r="Y6" s="19"/>
       <c r="Z6" s="10" t="s">
         <v>181</v>
       </c>
@@ -1250,7 +1334,7 @@
       <c r="AB6" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AF6" s="18"/>
+      <c r="AF6" s="19"/>
       <c r="AG6" s="11" t="s">
         <v>215</v>
       </c>
@@ -1258,7 +1342,7 @@
         <v>216</v>
       </c>
       <c r="AI6" s="11" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="6:35" x14ac:dyDescent="0.25">
@@ -1310,13 +1394,15 @@
       <c r="AF7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AG7" s="20" t="s">
+      <c r="AG7" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="AH7" s="20" t="s">
+      <c r="AH7" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="AI7" s="20"/>
+      <c r="AI7" s="16" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="8" spans="6:35" x14ac:dyDescent="0.25">
       <c r="G8" s="2" t="s">
@@ -1367,13 +1453,15 @@
       <c r="AF8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AG8" s="21">
+      <c r="AG8" s="17">
         <v>1014</v>
       </c>
-      <c r="AH8" s="20" t="s">
+      <c r="AH8" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="AI8" s="20"/>
+      <c r="AI8" s="16" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="9" spans="6:35" x14ac:dyDescent="0.25">
       <c r="G9" s="2" t="s">
@@ -1424,13 +1512,15 @@
       <c r="AF9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AG9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="AH9" s="20" t="s">
+      <c r="AH9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="AI9" s="20"/>
+      <c r="AI9" s="16" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="6:35" x14ac:dyDescent="0.25">
       <c r="G10" s="2" t="s">
@@ -1481,13 +1571,15 @@
       <c r="AF10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AG10" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="AH10" s="20" t="s">
+      <c r="AH10" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="AI10" s="20"/>
+      <c r="AI10" s="16" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="11" spans="6:35" x14ac:dyDescent="0.25">
       <c r="G11" s="2" t="s">
@@ -1538,13 +1630,15 @@
       <c r="AF11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AG11" s="20" t="s">
+      <c r="AG11" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="AH11" s="20" t="s">
+      <c r="AH11" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="AI11" s="20"/>
+      <c r="AI11" s="16" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="12" spans="6:35" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
@@ -1553,7 +1647,7 @@
       <c r="G12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -1574,7 +1668,9 @@
       <c r="R12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S12" s="6"/>
+      <c r="S12" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="T12" s="12" t="s">
         <v>158</v>
       </c>
@@ -1596,13 +1692,15 @@
       <c r="AF12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AG12" s="20" t="s">
+      <c r="AG12" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="AH12" s="20" t="s">
+      <c r="AH12" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="AI12" s="20"/>
+      <c r="AI12" s="16" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="13" spans="6:35" x14ac:dyDescent="0.25">
       <c r="G13" s="2" t="s">
@@ -1653,13 +1751,15 @@
       <c r="AF13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AG13" s="21">
+      <c r="AG13" s="17">
         <v>3532</v>
       </c>
-      <c r="AH13" s="21">
+      <c r="AH13" s="17">
         <v>4659</v>
       </c>
-      <c r="AI13" s="20"/>
+      <c r="AI13" s="17">
+        <v>5033</v>
+      </c>
     </row>
     <row r="14" spans="6:35" x14ac:dyDescent="0.25">
       <c r="G14" s="2" t="s">
@@ -1707,6 +1807,18 @@
       <c r="AB14" s="14" t="s">
         <v>198</v>
       </c>
+      <c r="AF14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG14" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH14" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI14" s="21" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="15" spans="6:35" x14ac:dyDescent="0.25">
       <c r="G15" s="2" t="s">
@@ -1757,6 +1869,18 @@
       <c r="AB15" s="14" t="s">
         <v>199</v>
       </c>
+      <c r="AF15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG15" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH15" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI15" s="21" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="16" spans="6:35" x14ac:dyDescent="0.25">
       <c r="G16" s="2" t="s">
@@ -1795,7 +1919,7 @@
       <c r="Y16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z16" s="15" t="s">
+      <c r="Z16" s="22" t="s">
         <v>177</v>
       </c>
       <c r="AA16" s="12" t="s">
@@ -1804,8 +1928,20 @@
       <c r="AB16" s="14" t="s">
         <v>200</v>
       </c>
+      <c r="AF16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG16" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH16" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI16" s="21" t="s">
+        <v>235</v>
+      </c>
     </row>
-    <row r="17" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:35" x14ac:dyDescent="0.25">
       <c r="G17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1842,17 +1978,29 @@
       <c r="Y17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z17" s="16">
+      <c r="Z17" s="15">
         <v>9091</v>
       </c>
-      <c r="AA17" s="16">
+      <c r="AA17" s="15">
         <v>7352</v>
       </c>
-      <c r="AB17" s="16">
+      <c r="AB17" s="15">
         <v>6412</v>
       </c>
+      <c r="AF17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG17" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH17" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI17" s="21" t="s">
+        <v>236</v>
+      </c>
     </row>
-    <row r="18" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:35" x14ac:dyDescent="0.25">
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1898,8 +2046,20 @@
       <c r="AB18" s="14" t="s">
         <v>201</v>
       </c>
+      <c r="AF18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG18" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH18" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI18" s="21" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="19" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:35" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>51</v>
       </c>
@@ -1930,10 +2090,10 @@
       <c r="S19" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="T19" s="16" t="s">
+      <c r="T19" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="U19" s="16">
+      <c r="U19" s="15">
         <v>5076</v>
       </c>
       <c r="Y19" s="2" t="s">
@@ -1949,7 +2109,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:35" x14ac:dyDescent="0.25">
       <c r="G20" s="2" t="s">
         <v>32</v>
       </c>
@@ -1996,7 +2156,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:35" x14ac:dyDescent="0.25">
       <c r="G21" s="2" t="s">
         <v>15</v>
       </c>
@@ -2031,7 +2191,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:35" x14ac:dyDescent="0.25">
       <c r="G22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2066,7 +2226,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:35" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>40</v>
       </c>
@@ -2100,11 +2260,11 @@
       <c r="T23" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="U23" s="15" t="s">
+      <c r="U23" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:35" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>38</v>
       </c>
@@ -2144,18 +2304,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:U5"/>
     <mergeCell ref="AF2:AG3"/>
     <mergeCell ref="AF5:AF6"/>
     <mergeCell ref="AG5:AI5"/>
     <mergeCell ref="Y2:Z3"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="R2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/First report/MOSFET Characteristics.xlsx
+++ b/First report/MOSFET Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Microelectronics-repository\First report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F3B08E-9B99-4189-920E-35DA86A324D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA86B31-B075-40BB-8B4B-6A5A81A70E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,20 +898,20 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F2:AI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,68 +1233,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="6:35" x14ac:dyDescent="0.25">
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="S2" s="18"/>
-      <c r="Y2" s="18" t="s">
+      <c r="S2" s="20"/>
+      <c r="Y2" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AF2" s="18" t="s">
+      <c r="Z2" s="20"/>
+      <c r="AF2" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="AG2" s="18"/>
+      <c r="AG2" s="20"/>
     </row>
     <row r="3" spans="6:35" x14ac:dyDescent="0.25">
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
     </row>
     <row r="5" spans="6:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20" t="s">
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="R5" s="19" t="s">
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="R5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="Y5" s="19" t="s">
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="Y5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="Z5" s="20" t="s">
+      <c r="Z5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AF5" s="19" t="s">
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AF5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AG5" s="20" t="s">
+      <c r="AG5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
     </row>
     <row r="6" spans="6:35" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="19"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="M6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="19"/>
+      <c r="R6" s="22"/>
       <c r="S6" s="3" t="s">
         <v>100</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>136</v>
       </c>
       <c r="X6" s="9"/>
-      <c r="Y6" s="19"/>
+      <c r="Y6" s="22"/>
       <c r="Z6" s="10" t="s">
         <v>181</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="AB6" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AF6" s="19"/>
+      <c r="AF6" s="22"/>
       <c r="AG6" s="11" t="s">
         <v>215</v>
       </c>
@@ -1810,13 +1810,13 @@
       <c r="AF14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AG14" s="21" t="s">
+      <c r="AG14" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="AH14" s="21" t="s">
+      <c r="AH14" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="AI14" s="21" t="s">
+      <c r="AI14" s="18" t="s">
         <v>233</v>
       </c>
     </row>
@@ -1872,13 +1872,13 @@
       <c r="AF15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AG15" s="21" t="s">
+      <c r="AG15" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="AH15" s="21" t="s">
+      <c r="AH15" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="AI15" s="21" t="s">
+      <c r="AI15" s="18" t="s">
         <v>234</v>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       <c r="Y16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z16" s="22" t="s">
+      <c r="Z16" s="19" t="s">
         <v>177</v>
       </c>
       <c r="AA16" s="12" t="s">
@@ -1931,13 +1931,13 @@
       <c r="AF16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG16" s="21" t="s">
+      <c r="AG16" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="AH16" s="21" t="s">
+      <c r="AH16" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="AI16" s="21" t="s">
+      <c r="AI16" s="18" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1990,13 +1990,13 @@
       <c r="AF17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AG17" s="21" t="s">
+      <c r="AG17" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="AH17" s="21" t="s">
+      <c r="AH17" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="AI17" s="21" t="s">
+      <c r="AI17" s="18" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2049,13 +2049,13 @@
       <c r="AF18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AG18" s="21" t="s">
+      <c r="AG18" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="AH18" s="21" t="s">
+      <c r="AH18" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="AI18" s="21" t="s">
+      <c r="AI18" s="18" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       <c r="T23" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="U23" s="22" t="s">
+      <c r="U23" s="19" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2304,18 +2304,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AF2:AG3"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="Y2:Z3"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="R2:S3"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:U5"/>
-    <mergeCell ref="AF2:AG3"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:AB5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/First report/MOSFET Characteristics.xlsx
+++ b/First report/MOSFET Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Microelectronics-repository\First report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA86B31-B075-40BB-8B4B-6A5A81A70E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC72DAA-8A3D-4421-B66A-630ECA467526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -907,11 +907,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F2:AI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,46 +1255,46 @@
       <c r="AG3" s="20"/>
     </row>
     <row r="5" spans="6:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="R5" s="22" t="s">
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="R5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="Y5" s="22" t="s">
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="Y5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="Z5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AF5" s="22" t="s">
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AF5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="AG5" s="21" t="s">
+      <c r="AG5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
     </row>
     <row r="6" spans="6:35" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="22"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="M6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="22"/>
+      <c r="R6" s="21"/>
       <c r="S6" s="3" t="s">
         <v>100</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>136</v>
       </c>
       <c r="X6" s="9"/>
-      <c r="Y6" s="22"/>
+      <c r="Y6" s="21"/>
       <c r="Z6" s="10" t="s">
         <v>181</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="AB6" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AF6" s="22"/>
+      <c r="AF6" s="21"/>
       <c r="AG6" s="11" t="s">
         <v>215</v>
       </c>
@@ -2304,18 +2304,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:U5"/>
     <mergeCell ref="AF2:AG3"/>
     <mergeCell ref="AF5:AF6"/>
     <mergeCell ref="AG5:AI5"/>
     <mergeCell ref="Y2:Z3"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/First report/MOSFET Characteristics.xlsx
+++ b/First report/MOSFET Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Microelectronics-repository\First report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC72DAA-8A3D-4421-B66A-630ECA467526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6500C3-213E-4886-BA81-B5A533302F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="249">
   <si>
     <t>Parameter</t>
   </si>
@@ -751,6 +751,36 @@
   </si>
   <si>
     <t>29.1 m</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>4.05p</t>
+  </si>
+  <si>
+    <t>1.1012p</t>
+  </si>
+  <si>
+    <t>5.8327p</t>
+  </si>
+  <si>
+    <t>70.91f</t>
+  </si>
+  <si>
+    <t>210.44f</t>
+  </si>
+  <si>
+    <t>978.8f</t>
+  </si>
+  <si>
+    <t>255.6f</t>
+  </si>
+  <si>
+    <t>1.856p</t>
+  </si>
+  <si>
+    <t>13.71p</t>
   </si>
 </sst>
 </file>
@@ -845,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -907,11 +937,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1199,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F2:AI24"/>
+  <dimension ref="F2:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="V4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1262,7 @@
     <col min="21" max="21" width="14.5703125" customWidth="1"/>
     <col min="25" max="25" width="12.140625" customWidth="1"/>
     <col min="26" max="26" width="14.140625" customWidth="1"/>
-    <col min="27" max="27" width="13" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" customWidth="1"/>
     <col min="28" max="28" width="14.42578125" customWidth="1"/>
     <col min="31" max="31" width="11.140625" customWidth="1"/>
     <col min="32" max="32" width="14.42578125" customWidth="1"/>
@@ -1255,46 +1297,46 @@
       <c r="AG3" s="20"/>
     </row>
     <row r="5" spans="6:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22" t="s">
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="R5" s="21" t="s">
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="R5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="Y5" s="21" t="s">
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="Y5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="Z5" s="22" t="s">
+      <c r="Z5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AF5" s="21" t="s">
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AF5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AG5" s="22" t="s">
+      <c r="AG5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
     </row>
     <row r="6" spans="6:35" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="21"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1313,7 +1355,7 @@
       <c r="M6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="21"/>
+      <c r="R6" s="22"/>
       <c r="S6" s="3" t="s">
         <v>100</v>
       </c>
@@ -1324,17 +1366,17 @@
         <v>136</v>
       </c>
       <c r="X6" s="9"/>
-      <c r="Y6" s="21"/>
+      <c r="Y6" s="22"/>
       <c r="Z6" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AA6" s="26" t="s">
         <v>183</v>
       </c>
       <c r="AB6" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AF6" s="21"/>
+      <c r="AF6" s="22"/>
       <c r="AG6" s="11" t="s">
         <v>215</v>
       </c>
@@ -2108,6 +2150,18 @@
       <c r="AB19" s="14" t="s">
         <v>202</v>
       </c>
+      <c r="AF19" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG19" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH19" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI19" s="18" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="20" spans="6:35" x14ac:dyDescent="0.25">
       <c r="G20" s="2" t="s">
@@ -2190,6 +2244,18 @@
       <c r="U21" s="12" t="s">
         <v>134</v>
       </c>
+      <c r="Y21" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z21" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA21" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB21" s="14" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="22" spans="6:35" x14ac:dyDescent="0.25">
       <c r="G22" s="2" t="s">
@@ -2222,7 +2288,7 @@
       <c r="T22" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="U22" s="12" t="s">
+      <c r="U22" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2260,7 +2326,7 @@
       <c r="T23" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="U23" s="19" t="s">
+      <c r="U23" s="14" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2302,20 +2368,34 @@
         <v>168</v>
       </c>
     </row>
+    <row r="25" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="R25" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="S25" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>242</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AF2:AG3"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="Y2:Z3"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="R2:S3"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:U5"/>
-    <mergeCell ref="AF2:AG3"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:AB5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
